--- a/report_ca_nhan/NV-36 Đặng Ngọc Mai 7-2024.xlsx
+++ b/report_ca_nhan/NV-36 Đặng Ngọc Mai 7-2024.xlsx
@@ -419,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T1"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -528,6 +528,44 @@
           <t>Phụ phẫu 2</t>
         </is>
       </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="n">
+        <v/>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/report_ca_nhan/NV-36 Đặng Ngọc Mai 7-2024.xlsx
+++ b/report_ca_nhan/NV-36 Đặng Ngọc Mai 7-2024.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet name="Đơn sale chính" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Đơn 1 bác sĩ" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Lương" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -771,4 +772,22 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/report_ca_nhan/NV-36 Đặng Ngọc Mai 7-2024.xlsx
+++ b/report_ca_nhan/NV-36 Đặng Ngọc Mai 7-2024.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V4"/>
+  <dimension ref="A1:AA7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,82 +474,107 @@
       </c>
       <c r="G1" t="inlineStr">
         <is>
+          <t>Nhóm dịch vụ</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
           <t>Tên dịch vụ</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>Sale chính</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>Đơn giá gốc</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>Sale phụ</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>Upsale</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>Đơn giá</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>Thanh toán lần đầu</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>Trả sau</t>
         </is>
       </c>
-      <c r="O1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>Đã thanh toán</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>Dư nợ</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>Bác sĩ 1</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>Bác sĩ 2</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>Phụ phẫu 1</t>
         </is>
       </c>
-      <c r="T1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>Phụ phẫu 2</t>
         </is>
       </c>
-      <c r="U1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>Công phụ phẫu 1</t>
         </is>
       </c>
-      <c r="V1" t="inlineStr">
+      <c r="W1" t="inlineStr">
         <is>
           <t>Công phụ phẫu 2</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>Tỉ lệ chiết khấu sale chính</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>Tỉ lệ chiết khấu sale phụ</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>Chiết khấu sale chính</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>Chiết khấu sale phụ</t>
         </is>
       </c>
     </row>
@@ -584,58 +609,75 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
+          <t>Các ngoại khoa khác</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
           <t>Tiềm cằm</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>Nguyễn Phúc Nam</t>
         </is>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>3000000</v>
       </c>
-      <c r="J2" t="n">
-        <v/>
-      </c>
       <c r="K2" t="n">
         <v/>
       </c>
       <c r="L2" t="n">
-        <v>3000000</v>
+        <v/>
       </c>
       <c r="M2" t="n">
         <v>3000000</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>3000000</v>
       </c>
       <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>3000000</v>
       </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="inlineStr">
         <is>
           <t>Đặng Ngọc Mai</t>
         </is>
       </c>
-      <c r="R2" t="n">
-        <v/>
-      </c>
-      <c r="S2" t="inlineStr">
+      <c r="S2" t="n">
+        <v/>
+      </c>
+      <c r="T2" t="inlineStr">
         <is>
           <t>Đào Vương Anh</t>
         </is>
       </c>
-      <c r="T2" t="n">
-        <v/>
-      </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>300000</v>
+      </c>
+      <c r="AA2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -670,44 +712,46 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
+          <t>Vùng mắt</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
           <t>Điêu khắc mày</t>
         </is>
       </c>
-      <c r="H3" t="n">
-        <v/>
-      </c>
       <c r="I3" t="n">
+        <v/>
+      </c>
+      <c r="J3" t="n">
         <v>1500000</v>
       </c>
-      <c r="J3" t="n">
-        <v/>
-      </c>
       <c r="K3" t="n">
         <v/>
       </c>
       <c r="L3" t="n">
-        <v>1500000</v>
+        <v/>
       </c>
       <c r="M3" t="n">
         <v>1500000</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1500000</v>
       </c>
       <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>1500000</v>
       </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="inlineStr">
         <is>
           <t>Đặng Ngọc Mai</t>
         </is>
       </c>
-      <c r="R3" t="n">
-        <v/>
-      </c>
       <c r="S3" t="n">
         <v/>
       </c>
@@ -715,57 +759,388 @@
         <v/>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>533</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>07-09-2024</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Diễm hương</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Môi</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Tiêm môi</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Nguyễn Phúc Nam</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
+        <v>1350000</v>
+      </c>
+      <c r="K4" t="n">
+        <v/>
+      </c>
+      <c r="L4" t="n">
+        <v/>
+      </c>
+      <c r="M4" t="n">
+        <v>1350000</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1350000</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1350000</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>Đặng Ngọc Mai</t>
+        </is>
+      </c>
+      <c r="S4" t="n">
+        <v/>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>Đào Vương Anh</t>
+        </is>
+      </c>
+      <c r="U4" t="n">
+        <v/>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>135000</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>536</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>07-11-2024</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Diệu</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Môi</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Tiêm môi</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Sang sang</t>
+        </is>
+      </c>
+      <c r="J5" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="K5" t="n">
+        <v/>
+      </c>
+      <c r="L5" t="n">
+        <v/>
+      </c>
+      <c r="M5" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>Đặng Ngọc Mai</t>
+        </is>
+      </c>
+      <c r="S5" t="n">
+        <v/>
+      </c>
+      <c r="T5" t="n">
+        <v/>
+      </c>
+      <c r="U5" t="n">
+        <v/>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>150000</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>540</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>07-12-2024</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Thuỳ dương</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>CTV</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Vùng mắt</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Điêu khắc mày</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v/>
+      </c>
+      <c r="J6" t="n">
+        <v>2500000</v>
+      </c>
+      <c r="K6" t="n">
+        <v/>
+      </c>
+      <c r="L6" t="n">
+        <v/>
+      </c>
+      <c r="M6" t="n">
+        <v>2500000</v>
+      </c>
+      <c r="N6" t="n">
+        <v>2500000</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2500000</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>Đặng Ngọc Mai</t>
+        </is>
+      </c>
+      <c r="S6" t="n">
+        <v/>
+      </c>
+      <c r="T6" t="n">
+        <v/>
+      </c>
+      <c r="U6" t="n">
+        <v/>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="n">
-        <v>4500000</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>4500000</v>
-      </c>
-      <c r="M4" t="n">
-        <v>4500000</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>4500000</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>9850000</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>9850000</v>
+      </c>
+      <c r="N7" t="n">
+        <v>9850000</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>9850000</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="inlineStr"/>
+      <c r="U7" t="inlineStr"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>585000</v>
+      </c>
+      <c r="AA7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -780,14 +1155,255 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Danh mục</t>
+        </is>
+      </c>
+      <c r="B1" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Ngày công</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Phụ cấp</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>420000</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Lương cơ bản tại CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Chiết khấu sale chính tại CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Chiết khấu sale phụ tại CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Đơn 1 bác sĩ tại CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Đơn 2 bác sĩ tại CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Công phụ phẫu 1 tại CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Công phụ phẫu 2 tại CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Lương cơ bản tại LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Chiết khấu sale chính tại LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Chiết khấu sale phụ tại LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Đơn 1 bác sĩ tại LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>985000</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Đơn 2 bác sĩ tại LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Công phụ phẫu 1 tại LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Công phụ phẫu 2 tại LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Lương cơ bản tại SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Chiết khấu sale chính tại SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Chiết khấu sale phụ tại SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Đơn 1 bác sĩ tại SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Đơn 2 bác sĩ tại SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Công phụ phẫu 1 tại SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Công phụ phẫu 2 tại SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/report_ca_nhan/NV-36 Đặng Ngọc Mai 7-2024.xlsx
+++ b/report_ca_nhan/NV-36 Đặng Ngọc Mai 7-2024.xlsx
@@ -9,7 +9,8 @@
   <sheets>
     <sheet name="Đơn sale chính" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Đơn 1 bác sĩ" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Lương" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Đơn thu nợ" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Lương" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -433,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA7"/>
+  <dimension ref="A1:AA9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -609,7 +610,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Các ngoại khoa khác</t>
+          <t>Tiêm</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -712,7 +713,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Vùng mắt</t>
+          <t>Phun xăm</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -811,7 +812,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Môi</t>
+          <t>Tiêm</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -914,7 +915,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Môi</t>
+          <t>Tiêm</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -1015,7 +1016,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Vùng mắt</t>
+          <t>Phun xăm</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -1086,61 +1087,265 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>543</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>07-13-2024</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Kiều tiên</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Tiêm</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Tiêm môi</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Lê Hoàng Thanh</t>
+        </is>
+      </c>
+      <c r="J7" t="n">
+        <v>1800000</v>
+      </c>
+      <c r="K7" t="n">
+        <v/>
+      </c>
+      <c r="L7" t="n">
+        <v/>
+      </c>
+      <c r="M7" t="n">
+        <v>1800000</v>
+      </c>
+      <c r="N7" t="n">
+        <v>1800000</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1800000</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>Đặng Ngọc Mai</t>
+        </is>
+      </c>
+      <c r="S7" t="n">
+        <v/>
+      </c>
+      <c r="T7" t="n">
+        <v/>
+      </c>
+      <c r="U7" t="n">
+        <v/>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>180000</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>555</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>07-16-2024</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Nguyễn thị hồng cúc</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Tiêm</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Tiêm Filler</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Lê Văn Linh</t>
+        </is>
+      </c>
+      <c r="J8" t="n">
+        <v>7000000</v>
+      </c>
+      <c r="K8" t="n">
+        <v/>
+      </c>
+      <c r="L8" t="n">
+        <v/>
+      </c>
+      <c r="M8" t="n">
+        <v>7000000</v>
+      </c>
+      <c r="N8" t="n">
+        <v>7000000</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>7000000</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>Đặng Ngọc Mai</t>
+        </is>
+      </c>
+      <c r="S8" t="n">
+        <v/>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>Sang sang</t>
+        </is>
+      </c>
+      <c r="U8" t="n">
+        <v/>
+      </c>
+      <c r="V8" t="n">
+        <v>50000</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>910000</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="n">
-        <v>9850000</v>
-      </c>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>9850000</v>
-      </c>
-      <c r="N7" t="n">
-        <v>9850000</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>9850000</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="inlineStr"/>
-      <c r="T7" t="inlineStr"/>
-      <c r="U7" t="inlineStr"/>
-      <c r="V7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0</v>
-      </c>
-      <c r="X7" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>585000</v>
-      </c>
-      <c r="AA7" t="n">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>18650000</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>18650000</v>
+      </c>
+      <c r="N9" t="n">
+        <v>18650000</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>18650000</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="inlineStr"/>
+      <c r="U9" t="inlineStr"/>
+      <c r="V9" t="n">
+        <v>50000</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>1675000</v>
+      </c>
+      <c r="AA9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1155,7 +1360,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:AB3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1166,6 +1371,335 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>Ngày thực hiện</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Ngày thu</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>notion id</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Tiền tố</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Mã đơn thu nợ</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Cơ sở</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>id đơn nợ</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Lượng thu</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Đơn nợ</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Nguồn khách</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Sale chính</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Đơn giá gốc</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Sale phụ</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Upsale</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Bác sĩ 1</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>Bác sĩ 2</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>Thanh toán lần đầu</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>Đã thanh toán</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>Tỉ lệ chiết khấu sale chính</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>Tỉ lệ chiết khấu sale phụ</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>id sale chính</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>id sale phụ</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>id bác sĩ 1</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>id bác sĩ 2</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>Chiết khấu bác sĩ 1</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>Chiết khấu bác sĩ 2</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>Chiết khấu sale chính</t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t>Chiết khấu sale phụ</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>06-01-2024</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>07-02-2024</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>a0103bd3-cb79-4d78-a6b5-1b8fb7464a7e</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>133</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5b507fed-b144-4730-8609-0b30178b547a</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>800000</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>HD-LUXURY-347</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>CTV</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Nguyễn Phúc Nam</t>
+        </is>
+      </c>
+      <c r="L2" t="n">
+        <v>2300000</v>
+      </c>
+      <c r="M2" t="n">
+        <v/>
+      </c>
+      <c r="N2" t="n">
+        <v/>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>Đặng Ngọc Mai</t>
+        </is>
+      </c>
+      <c r="P2" t="n">
+        <v/>
+      </c>
+      <c r="Q2" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1800000</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>e926d62c-e624-4663-9009-c562ae5166cf</t>
+        </is>
+      </c>
+      <c r="V2" t="n">
+        <v/>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>467f676f-8f46-49b5-afea-feecb0794d23</t>
+        </is>
+      </c>
+      <c r="X2" t="n">
+        <v/>
+      </c>
+      <c r="Y2" t="n">
+        <v>80000</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Tổng</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="n">
+        <v>800000</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>2300000</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1800000</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="inlineStr"/>
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="inlineStr"/>
+      <c r="X3" t="inlineStr"/>
+      <c r="Y3" t="n">
+        <v>80000</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
           <t>Danh mục</t>
         </is>
       </c>
@@ -1180,7 +1714,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3">
@@ -1190,7 +1724,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>420000</v>
+        <v>595000</v>
       </c>
     </row>
     <row r="4">
@@ -1266,27 +1800,27 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Lương cơ bản tại LONG XUYÊN</t>
+          <t>Ứng lương tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Chiết khấu sale chính tại LONG XUYÊN</t>
+          <t>Lương cơ bản tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>3035714.285714286</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Chiết khấu sale phụ tại LONG XUYÊN</t>
+          <t>Chiết khấu sale chính tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -1296,27 +1830,27 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Đơn 1 bác sĩ tại LONG XUYÊN</t>
+          <t>Chiết khấu sale phụ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>985000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Đơn 2 bác sĩ tại LONG XUYÊN</t>
+          <t>Đơn 1 bác sĩ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>1865000</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 1 tại LONG XUYÊN</t>
+          <t>Đơn 2 bác sĩ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -1326,7 +1860,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 2 tại LONG XUYÊN</t>
+          <t>Công phụ phẫu 1 tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -1336,17 +1870,17 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Lương cơ bản tại SÓC TRĂNG</t>
+          <t>Công phụ phẫu 2 tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Chiết khấu sale chính tại SÓC TRĂNG</t>
+          <t>Ứng lương tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -1356,17 +1890,17 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Chiết khấu sale phụ tại SÓC TRĂNG</t>
+          <t>Lương cơ bản tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Đơn 1 bác sĩ tại SÓC TRĂNG</t>
+          <t>Chiết khấu sale chính tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -1376,7 +1910,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Đơn 2 bác sĩ tại SÓC TRĂNG</t>
+          <t>Chiết khấu sale phụ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -1386,7 +1920,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 1 tại SÓC TRĂNG</t>
+          <t>Đơn 1 bác sĩ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -1396,11 +1930,81 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
+          <t>Đơn 2 bác sĩ tại SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Công phụ phẫu 1 tại SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
           <t>Công phụ phẫu 2 tại SÓC TRĂNG</t>
         </is>
       </c>
-      <c r="B24" t="n">
-        <v>0</v>
+      <c r="B26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Ứng lương tại SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Tổng lương tại CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Tổng lương tại LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>9958214.285714285</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Tổng lương tại SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Tổng lương</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>9958214.285714285</v>
       </c>
     </row>
   </sheetData>

--- a/report_ca_nhan/NV-36 Đặng Ngọc Mai 7-2024.xlsx
+++ b/report_ca_nhan/NV-36 Đặng Ngọc Mai 7-2024.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA9"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,107 +475,42 @@
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>Nhóm dịch vụ</t>
+          <t>Tên dịch vụ</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>Tên dịch vụ</t>
+          <t>Đơn giá gốc</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>Sale chính</t>
+          <t>Sale phụ</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>Đơn giá gốc</t>
+          <t>Upsale</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>Sale phụ</t>
+          <t>Đơn giá</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>Upsale</t>
+          <t>Đã thanh toán</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t>Đơn giá</t>
+          <t>Tỉ lệ chiết khấu bác sĩ 1</t>
         </is>
       </c>
       <c r="N1" t="inlineStr">
         <is>
-          <t>Thanh toán lần đầu</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Trả sau</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Đã thanh toán</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Dư nợ</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Bác sĩ 1</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Bác sĩ 2</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Phụ phẫu 1</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Phụ phẫu 2</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Công phụ phẫu 1</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Công phụ phẫu 2</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Tỉ lệ chiết khấu sale chính</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Tỉ lệ chiết khấu sale phụ</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Chiết khấu sale chính</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Chiết khấu sale phụ</t>
+          <t>Chiết khấu bác sĩ 1</t>
         </is>
       </c>
     </row>
@@ -610,76 +545,29 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Tiêm</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
           <t>Tiềm cằm</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>Nguyễn Phúc Nam</t>
-        </is>
+      <c r="H2" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="I2" t="n">
+        <v/>
       </c>
       <c r="J2" t="n">
+        <v/>
+      </c>
+      <c r="K2" t="n">
         <v>3000000</v>
       </c>
-      <c r="K2" t="n">
-        <v/>
-      </c>
       <c r="L2" t="n">
-        <v/>
+        <v>3000000</v>
       </c>
       <c r="M2" t="n">
-        <v>3000000</v>
+        <v>0.1</v>
       </c>
       <c r="N2" t="n">
-        <v>3000000</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>3000000</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>Đặng Ngọc Mai</t>
-        </is>
-      </c>
-      <c r="S2" t="n">
-        <v/>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>Đào Vương Anh</t>
-        </is>
-      </c>
-      <c r="U2" t="n">
-        <v/>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z2" t="n">
         <v>300000</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -713,72 +601,29 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Phun xăm</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
           <t>Điêu khắc mày</t>
         </is>
       </c>
+      <c r="H3" t="n">
+        <v>1500000</v>
+      </c>
       <c r="I3" t="n">
         <v/>
       </c>
       <c r="J3" t="n">
+        <v/>
+      </c>
+      <c r="K3" t="n">
         <v>1500000</v>
       </c>
-      <c r="K3" t="n">
-        <v/>
-      </c>
       <c r="L3" t="n">
-        <v/>
+        <v>1500000</v>
       </c>
       <c r="M3" t="n">
-        <v>1500000</v>
+        <v>0.1</v>
       </c>
       <c r="N3" t="n">
-        <v>1500000</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1500000</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>Đặng Ngọc Mai</t>
-        </is>
-      </c>
-      <c r="S3" t="n">
-        <v/>
-      </c>
-      <c r="T3" t="n">
-        <v/>
-      </c>
-      <c r="U3" t="n">
-        <v/>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>0</v>
+        <v>150000</v>
       </c>
     </row>
     <row r="4">
@@ -812,76 +657,29 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Tiêm</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
           <t>Tiêm môi</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>Nguyễn Phúc Nam</t>
-        </is>
+      <c r="H4" t="n">
+        <v>1350000</v>
+      </c>
+      <c r="I4" t="n">
+        <v/>
       </c>
       <c r="J4" t="n">
+        <v/>
+      </c>
+      <c r="K4" t="n">
         <v>1350000</v>
       </c>
-      <c r="K4" t="n">
-        <v/>
-      </c>
       <c r="L4" t="n">
-        <v/>
+        <v>1350000</v>
       </c>
       <c r="M4" t="n">
-        <v>1350000</v>
+        <v>0.1</v>
       </c>
       <c r="N4" t="n">
-        <v>1350000</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1350000</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>Đặng Ngọc Mai</t>
-        </is>
-      </c>
-      <c r="S4" t="n">
-        <v/>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>Đào Vương Anh</t>
-        </is>
-      </c>
-      <c r="U4" t="n">
-        <v/>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z4" t="n">
         <v>135000</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -915,74 +713,29 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Tiêm</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
           <t>Tiêm môi</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>Sang sang</t>
-        </is>
+      <c r="H5" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="I5" t="n">
+        <v/>
       </c>
       <c r="J5" t="n">
+        <v/>
+      </c>
+      <c r="K5" t="n">
         <v>1500000</v>
       </c>
-      <c r="K5" t="n">
-        <v/>
-      </c>
       <c r="L5" t="n">
-        <v/>
+        <v>1500000</v>
       </c>
       <c r="M5" t="n">
-        <v>1500000</v>
+        <v>0.1</v>
       </c>
       <c r="N5" t="n">
-        <v>1500000</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1500000</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>Đặng Ngọc Mai</t>
-        </is>
-      </c>
-      <c r="S5" t="n">
-        <v/>
-      </c>
-      <c r="T5" t="n">
-        <v/>
-      </c>
-      <c r="U5" t="n">
-        <v/>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z5" t="n">
         <v>150000</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1016,72 +769,29 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Phun xăm</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
           <t>Điêu khắc mày</t>
         </is>
       </c>
+      <c r="H6" t="n">
+        <v>2500000</v>
+      </c>
       <c r="I6" t="n">
         <v/>
       </c>
       <c r="J6" t="n">
+        <v/>
+      </c>
+      <c r="K6" t="n">
         <v>2500000</v>
       </c>
-      <c r="K6" t="n">
-        <v/>
-      </c>
       <c r="L6" t="n">
-        <v/>
+        <v>2500000</v>
       </c>
       <c r="M6" t="n">
-        <v>2500000</v>
+        <v>0.1</v>
       </c>
       <c r="N6" t="n">
-        <v>2500000</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>2500000</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>Đặng Ngọc Mai</t>
-        </is>
-      </c>
-      <c r="S6" t="n">
-        <v/>
-      </c>
-      <c r="T6" t="n">
-        <v/>
-      </c>
-      <c r="U6" t="n">
-        <v/>
-      </c>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>0</v>
+        <v>250000</v>
       </c>
     </row>
     <row r="7">
@@ -1115,74 +825,29 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Tiêm</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
           <t>Tiêm môi</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>Lê Hoàng Thanh</t>
-        </is>
+      <c r="H7" t="n">
+        <v>1800000</v>
+      </c>
+      <c r="I7" t="n">
+        <v/>
       </c>
       <c r="J7" t="n">
+        <v/>
+      </c>
+      <c r="K7" t="n">
         <v>1800000</v>
       </c>
-      <c r="K7" t="n">
-        <v/>
-      </c>
       <c r="L7" t="n">
-        <v/>
+        <v>1800000</v>
       </c>
       <c r="M7" t="n">
-        <v>1800000</v>
+        <v>0.1</v>
       </c>
       <c r="N7" t="n">
-        <v>1800000</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>1800000</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>Đặng Ngọc Mai</t>
-        </is>
-      </c>
-      <c r="S7" t="n">
-        <v/>
-      </c>
-      <c r="T7" t="n">
-        <v/>
-      </c>
-      <c r="U7" t="n">
-        <v/>
-      </c>
-      <c r="V7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0</v>
-      </c>
-      <c r="X7" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z7" t="n">
         <v>180000</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1216,76 +881,29 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Tiêm</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
           <t>Tiêm Filler</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>Lê Văn Linh</t>
-        </is>
+      <c r="H8" t="n">
+        <v>7000000</v>
+      </c>
+      <c r="I8" t="n">
+        <v/>
       </c>
       <c r="J8" t="n">
+        <v/>
+      </c>
+      <c r="K8" t="n">
         <v>7000000</v>
       </c>
-      <c r="K8" t="n">
-        <v/>
-      </c>
       <c r="L8" t="n">
-        <v/>
+        <v>7000000</v>
       </c>
       <c r="M8" t="n">
-        <v>7000000</v>
+        <v>0.1</v>
       </c>
       <c r="N8" t="n">
-        <v>7000000</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>7000000</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>Đặng Ngọc Mai</t>
-        </is>
-      </c>
-      <c r="S8" t="n">
-        <v/>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>Sang sang</t>
-        </is>
-      </c>
-      <c r="U8" t="n">
-        <v/>
-      </c>
-      <c r="V8" t="n">
-        <v>50000</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>910000</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>0</v>
+        <v>700000</v>
       </c>
     </row>
     <row r="9">
@@ -1302,51 +920,24 @@
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
+      <c r="H9" t="n">
+        <v>18650000</v>
+      </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
         <v>18650000</v>
       </c>
-      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>18650000</v>
       </c>
       <c r="M9" t="n">
-        <v>18650000</v>
+        <v>0.7</v>
       </c>
       <c r="N9" t="n">
-        <v>18650000</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>18650000</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="inlineStr"/>
-      <c r="T9" t="inlineStr"/>
-      <c r="U9" t="inlineStr"/>
-      <c r="V9" t="n">
-        <v>50000</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0</v>
-      </c>
-      <c r="X9" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>1675000</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>0</v>
+        <v>1865000</v>
       </c>
     </row>
   </sheetData>
@@ -1360,7 +951,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB3"/>
+  <dimension ref="A1:Y3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1371,97 +962,97 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Ngày thực hiện</t>
+          <t>Tiền tố</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
+          <t>Mã đơn thu nợ</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Lượng thu</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
           <t>Ngày thu</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>notion id</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Tiền tố</t>
-        </is>
-      </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>Mã đơn thu nợ</t>
+          <t>Cơ sở</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>Cơ sở</t>
+          <t>Đơn nợ</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>id đơn nợ</t>
+          <t>Tên dịch vụ</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>Lượng thu</t>
+          <t>Khách hàng</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>Đơn nợ</t>
+          <t>Nguồn khách</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>Nguồn khách</t>
+          <t>Sale chính</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>Sale chính</t>
+          <t>Đơn giá gốc</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>Đơn giá gốc</t>
+          <t>Sale phụ</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t>Sale phụ</t>
+          <t>Upsale</t>
         </is>
       </c>
       <c r="N1" t="inlineStr">
         <is>
-          <t>Upsale</t>
+          <t>Đơn giá</t>
         </is>
       </c>
       <c r="O1" t="inlineStr">
         <is>
+          <t>Đã thanh toán</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
           <t>Bác sĩ 1</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>Bác sĩ 2</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Thanh toán lần đầu</t>
-        </is>
-      </c>
       <c r="R1" t="inlineStr">
         <is>
-          <t>Đã thanh toán</t>
+          <t>Tỉ lệ chiết khấu sale chính</t>
         </is>
       </c>
       <c r="S1" t="inlineStr">
         <is>
-          <t>Tỉ lệ chiết khấu sale chính</t>
+          <t>Chiết khấu sale chính</t>
         </is>
       </c>
       <c r="T1" t="inlineStr">
@@ -1471,189 +1062,161 @@
       </c>
       <c r="U1" t="inlineStr">
         <is>
-          <t>id sale chính</t>
+          <t>Chiết khấu sale phụ</t>
         </is>
       </c>
       <c r="V1" t="inlineStr">
         <is>
-          <t>id sale phụ</t>
+          <t>Tỉ lệ chiết khấu bác sĩ 1</t>
         </is>
       </c>
       <c r="W1" t="inlineStr">
         <is>
-          <t>id bác sĩ 1</t>
+          <t>Chiết khấu bác sĩ 1</t>
         </is>
       </c>
       <c r="X1" t="inlineStr">
         <is>
-          <t>id bác sĩ 2</t>
+          <t>Tỉ lệ chiết khấu bác sĩ 2</t>
         </is>
       </c>
       <c r="Y1" t="inlineStr">
         <is>
-          <t>Chiết khấu bác sĩ 1</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
           <t>Chiết khấu bác sĩ 2</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Chiết khấu sale chính</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Chiết khấu sale phụ</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>06-01-2024</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>133</v>
+      </c>
+      <c r="C2" t="n">
+        <v>800000</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>07-02-2024</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>a0103bd3-cb79-4d78-a6b5-1b8fb7464a7e</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>TN</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>133</v>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>HD-LUXURY-347</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>5b507fed-b144-4730-8609-0b30178b547a</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>Điêu khắc mày</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Chị diễm</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>CTV</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Nguyễn Phúc Nam</t>
+        </is>
+      </c>
+      <c r="K2" t="n">
+        <v>2300000</v>
+      </c>
+      <c r="L2" t="n">
+        <v/>
+      </c>
+      <c r="M2" t="n">
+        <v/>
+      </c>
+      <c r="N2" t="n">
+        <v>2300000</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1800000</v>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>Đặng Ngọc Mai</t>
+        </is>
+      </c>
+      <c r="Q2" t="n">
+        <v/>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="W2" t="n">
+        <v>80000</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Tổng</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
         <v>800000</v>
       </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>HD-LUXURY-347</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>CTV</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>Nguyễn Phúc Nam</t>
-        </is>
-      </c>
-      <c r="L2" t="n">
-        <v>2300000</v>
-      </c>
-      <c r="M2" t="n">
-        <v/>
-      </c>
-      <c r="N2" t="n">
-        <v/>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>Đặng Ngọc Mai</t>
-        </is>
-      </c>
-      <c r="P2" t="n">
-        <v/>
-      </c>
-      <c r="Q2" t="n">
-        <v>1000000</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1800000</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>e926d62c-e624-4663-9009-c562ae5166cf</t>
-        </is>
-      </c>
-      <c r="V2" t="n">
-        <v/>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>467f676f-8f46-49b5-afea-feecb0794d23</t>
-        </is>
-      </c>
-      <c r="X2" t="n">
-        <v/>
-      </c>
-      <c r="Y2" t="n">
-        <v>80000</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr"/>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Tổng</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>1</v>
-      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
-      <c r="H3" t="n">
-        <v>800000</v>
-      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
+      <c r="K3" t="n">
         <v>2300000</v>
       </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
       <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="inlineStr"/>
+        <v>2300000</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1800000</v>
+      </c>
       <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="n">
-        <v>1000000</v>
-      </c>
+      <c r="Q3" t="inlineStr"/>
       <c r="R3" t="n">
-        <v>1800000</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -1661,20 +1224,19 @@
       <c r="T3" t="n">
         <v>0</v>
       </c>
-      <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr"/>
-      <c r="X3" t="inlineStr"/>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="W3" t="n">
+        <v>80000</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
       <c r="Y3" t="n">
-        <v>80000</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1689,7 +1251,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1700,7 +1262,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Danh mục</t>
+          <t>Danh mục lương</t>
         </is>
       </c>
       <c r="B1" t="n">
@@ -1714,7 +1276,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3">
@@ -1724,7 +1286,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>595000</v>
+        <v>630000</v>
       </c>
     </row>
     <row r="4">
@@ -1800,7 +1362,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Ứng lương tại CẦN THƠ</t>
+          <t>Chiết khấu thu nợ tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -1810,27 +1372,27 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Lương cơ bản tại LONG XUYÊN</t>
+          <t>Ứng lương tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3035714.285714286</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Chiết khấu sale chính tại LONG XUYÊN</t>
+          <t>Lương cơ bản tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>3214285.714285714</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Chiết khấu sale phụ tại LONG XUYÊN</t>
+          <t>Chiết khấu sale chính tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -1840,27 +1402,27 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Đơn 1 bác sĩ tại LONG XUYÊN</t>
+          <t>Chiết khấu sale phụ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1865000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Đơn 2 bác sĩ tại LONG XUYÊN</t>
+          <t>Đơn 1 bác sĩ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>1865000</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 1 tại LONG XUYÊN</t>
+          <t>Đơn 2 bác sĩ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -1870,7 +1432,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 2 tại LONG XUYÊN</t>
+          <t>Công phụ phẫu 1 tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -1880,7 +1442,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Ứng lương tại LONG XUYÊN</t>
+          <t>Công phụ phẫu 2 tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -1890,17 +1452,17 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Lương cơ bản tại SÓC TRĂNG</t>
+          <t>Chiết khấu thu nợ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v/>
+        <v>80000</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Chiết khấu sale chính tại SÓC TRĂNG</t>
+          <t>Ứng lương tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -1910,17 +1472,17 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Chiết khấu sale phụ tại SÓC TRĂNG</t>
+          <t>Lương cơ bản tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Đơn 1 bác sĩ tại SÓC TRĂNG</t>
+          <t>Chiết khấu sale chính tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -1930,7 +1492,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Đơn 2 bác sĩ tại SÓC TRĂNG</t>
+          <t>Chiết khấu sale phụ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -1940,7 +1502,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 1 tại SÓC TRĂNG</t>
+          <t>Đơn 1 bác sĩ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -1950,7 +1512,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 2 tại SÓC TRĂNG</t>
+          <t>Đơn 2 bác sĩ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -1960,7 +1522,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Ứng lương tại SÓC TRĂNG</t>
+          <t>Công phụ phẫu 1 tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -1970,7 +1532,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Tổng lương tại CẦN THƠ</t>
+          <t>Công phụ phẫu 2 tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -1980,17 +1542,17 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Tổng lương tại LONG XUYÊN</t>
+          <t>Chiết khấu thu nợ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>9958214.285714285</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Tổng lương tại SÓC TRĂNG</t>
+          <t>Ứng lương tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -2000,11 +1562,41 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
+          <t>Tổng lương tại CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Tổng lương tại LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>5789285.714285715</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Tổng lương tại SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
           <t>Tổng lương</t>
         </is>
       </c>
-      <c r="B31" t="n">
-        <v>9958214.285714285</v>
+      <c r="B34" t="n">
+        <v>5789285.714285715</v>
       </c>
     </row>
   </sheetData>
